--- a/Resultados_diagnosticas/xls/senhas_acesso.xlsx
+++ b/Resultados_diagnosticas/xls/senhas_acesso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\SPAECE_preliminar_2024\Coleta de Dados SPAECE 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\SPAECE_preliminar_2024\Coleta de Dados SPAECE 2024\Resultados_diagnosticas\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441334C0-6A65-46CA-8499-5226CCEE1A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B494B34-7EBE-419F-A1FB-1F79124C0C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1580D103-A5AA-4721-9AD7-3069614663F2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha3" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha3!$B$1:$D$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha3!$B$1:$C$68</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>CARLOS JEREISSATI EMEIEF SENADOR</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>INEP</t>
-  </si>
-  <si>
-    <t>SENHA</t>
   </si>
   <si>
     <t>MARACANAÚ</t>
@@ -275,7 +272,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF767676"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -289,7 +286,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -312,17 +309,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -332,23 +318,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,782 +651,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B042C806-F34B-4C12-9608-3A6BF587870C}">
-  <dimension ref="B1:D69"/>
+  <dimension ref="B1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="4">
         <v>23081171</v>
       </c>
-      <c r="D2" s="4">
-        <v>23081171</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="4">
         <v>23081716</v>
       </c>
-      <c r="D3" s="4">
-        <v>23081716</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="4">
         <v>23549009</v>
       </c>
-      <c r="D4" s="4">
-        <v>23549009</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="4">
         <v>23081732</v>
       </c>
-      <c r="D5" s="4">
-        <v>23081732</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>23079622</v>
       </c>
-      <c r="D6" s="4">
-        <v>23079622</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C7" s="4">
         <v>23079789</v>
       </c>
-      <c r="D7" s="4">
-        <v>23079789</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="4">
         <v>23232706</v>
       </c>
-      <c r="D8" s="4">
-        <v>23232706</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4">
         <v>23079835</v>
       </c>
-      <c r="D9" s="4">
-        <v>23079835</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C10" s="4">
         <v>23079894</v>
       </c>
-      <c r="D10" s="4">
-        <v>23079894</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="5">
         <v>23079908</v>
       </c>
-      <c r="D11" s="2">
-        <v>23079908</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="4">
         <v>23270977</v>
       </c>
-      <c r="D12" s="4">
-        <v>23270977</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="4">
         <v>23197510</v>
       </c>
-      <c r="D13" s="4">
-        <v>23197510</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>23223057</v>
       </c>
-      <c r="D14" s="5">
-        <v>23223057</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4">
         <v>23225351</v>
       </c>
-      <c r="D15" s="4">
-        <v>23225351</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="4">
         <v>23242671</v>
       </c>
-      <c r="D16" s="4">
-        <v>23242671</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="4">
         <v>23080167</v>
       </c>
-      <c r="D17" s="4">
-        <v>23080167</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="4">
         <v>23241322</v>
       </c>
-      <c r="D18" s="4">
-        <v>23241322</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="4">
         <v>23081309</v>
       </c>
-      <c r="D19" s="4">
-        <v>23081309</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="4">
         <v>23212454</v>
       </c>
-      <c r="D20" s="4">
-        <v>23212454</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="5">
         <v>23080256</v>
       </c>
-      <c r="D21" s="2">
-        <v>23080256</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="4">
         <v>23270900</v>
       </c>
-      <c r="D22" s="4">
-        <v>23270900</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="4">
         <v>23080299</v>
       </c>
-      <c r="D23" s="4">
-        <v>23080299</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4">
         <v>23270985</v>
       </c>
-      <c r="D24" s="4">
-        <v>23270985</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="5">
         <v>23080302</v>
       </c>
-      <c r="D25" s="2">
-        <v>23080302</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="5">
         <v>23080604</v>
       </c>
-      <c r="D26" s="2">
-        <v>23080604</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="4">
         <v>23080426</v>
       </c>
-      <c r="D27" s="4">
-        <v>23080426</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="4">
         <v>23274514</v>
       </c>
-      <c r="D28" s="4">
-        <v>23274514</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="4">
         <v>23234563</v>
       </c>
-      <c r="D29" s="4">
-        <v>23234563</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="4">
         <v>23223928</v>
       </c>
-      <c r="D30" s="4">
-        <v>23223928</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C31" s="4">
         <v>23197358</v>
       </c>
-      <c r="D31" s="4">
-        <v>23197358</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="4">
         <v>23206187</v>
       </c>
-      <c r="D32" s="4">
-        <v>23206187</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C33" s="4">
         <v>23080647</v>
       </c>
-      <c r="D33" s="4">
-        <v>23080647</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="4">
         <v>23080590</v>
       </c>
-      <c r="D34" s="4">
-        <v>23080590</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="4">
         <v>23080663</v>
       </c>
-      <c r="D35" s="4">
-        <v>23080663</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="4">
         <v>23226757</v>
       </c>
-      <c r="D36" s="4">
-        <v>23226757</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="5">
         <v>23080671</v>
       </c>
-      <c r="D37" s="2">
-        <v>23080671</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="5">
         <v>23080809</v>
       </c>
-      <c r="D38" s="2">
-        <v>23080809</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="4">
         <v>23080698</v>
       </c>
-      <c r="D39" s="4">
-        <v>23080698</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="4">
         <v>23197145</v>
       </c>
-      <c r="D40" s="4">
-        <v>23197145</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="4">
         <v>23080728</v>
       </c>
-      <c r="D41" s="4">
-        <v>23080728</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="5">
         <v>23081856</v>
       </c>
-      <c r="D42" s="2">
-        <v>23081856</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="4">
         <v>23080949</v>
       </c>
-      <c r="D43" s="4">
-        <v>23080949</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C44" s="4">
         <v>23197218</v>
       </c>
-      <c r="D44" s="4">
-        <v>23197218</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="4">
         <v>23080957</v>
       </c>
-      <c r="D45" s="4">
-        <v>23080957</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="7">
+        <v>2307650</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C47" s="4">
         <v>23176962</v>
       </c>
-      <c r="D46" s="4">
-        <v>23176962</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C48" s="4">
         <v>23270950</v>
       </c>
-      <c r="D47" s="4">
-        <v>23270950</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C49" s="4">
         <v>23564105</v>
       </c>
-      <c r="D48" s="4">
-        <v>23564105</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C50" s="4">
         <v>23225394</v>
       </c>
-      <c r="D49" s="4">
-        <v>23225394</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C51" s="5">
         <v>23080914</v>
       </c>
-      <c r="D50" s="2">
-        <v>23080914</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C52" s="4">
         <v>23242655</v>
       </c>
-      <c r="D51" s="4">
-        <v>23242655</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C53" s="4">
         <v>23081180</v>
       </c>
-      <c r="D52" s="4">
-        <v>23081180</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C54" s="4">
         <v>23270934</v>
       </c>
-      <c r="D53" s="4">
-        <v>23270934</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C55" s="4">
         <v>23081201</v>
       </c>
-      <c r="D54" s="4">
-        <v>23081201</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C56" s="4">
         <v>23270969</v>
       </c>
-      <c r="D55" s="4">
-        <v>23270969</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C57" s="4">
         <v>23329815</v>
       </c>
-      <c r="D56" s="4">
-        <v>23329815</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C58" s="4">
         <v>23079614</v>
       </c>
-      <c r="D57" s="4">
-        <v>23079614</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C59" s="5">
         <v>23197170</v>
       </c>
-      <c r="D58" s="2">
-        <v>23197170</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C60" s="4">
         <v>23279044</v>
       </c>
-      <c r="D59" s="4">
-        <v>23279044</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C61" s="4">
         <v>23081473</v>
       </c>
-      <c r="D60" s="4">
-        <v>23081473</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C62" s="5">
         <v>23081490</v>
       </c>
-      <c r="D61" s="2">
-        <v>23081490</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C63" s="5">
         <v>23197137</v>
       </c>
-      <c r="D62" s="2">
-        <v>23197137</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C64" s="5">
         <v>23081600</v>
       </c>
-      <c r="D63" s="2">
-        <v>23081600</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C65" s="4">
         <v>23232692</v>
       </c>
-      <c r="D64" s="4">
-        <v>23232692</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C66" s="5">
         <v>23081643</v>
       </c>
-      <c r="D65" s="2">
-        <v>23081643</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="5">
         <v>23081660</v>
       </c>
-      <c r="D66" s="2">
-        <v>23081660</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C68" s="4">
         <v>23223065</v>
       </c>
-      <c r="D67" s="4">
-        <v>23223065</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C69" s="4">
         <v>23197196</v>
       </c>
-      <c r="D68" s="4">
-        <v>23197196</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="7">
-        <v>2307650</v>
-      </c>
-      <c r="D69" s="7">
-        <v>2307650</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:D68" xr:uid="{BA1790AF-C4DB-4A51-801A-29292A729340}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B94">
-    <sortCondition ref="B2"/>
+  <autoFilter ref="B1:C68" xr:uid="{BA1790AF-C4DB-4A51-801A-29292A729340}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C69">
+    <sortCondition ref="B2:B69"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Resultados_diagnosticas/xls/senhas_acesso.xlsx
+++ b/Resultados_diagnosticas/xls/senhas_acesso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\SPAECE_preliminar_2024\Coleta de Dados SPAECE 2024\Resultados_diagnosticas\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05694B7-A911-40E8-B01E-B529EB5E8A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B78B725-E13A-4AAD-B363-EF0640E82FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1580D103-A5AA-4721-9AD7-3069614663F2}"/>
   </bookViews>
@@ -611,13 +611,13 @@
   <dimension ref="C1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="15.75" x14ac:dyDescent="0.25">
